--- a/Tugas_Kelompok_AI_Fuzzy/masukan_manual.xlsx
+++ b/Tugas_Kelompok_AI_Fuzzy/masukan_manual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>No</t>
   </si>
@@ -25,307 +25,580 @@
     <t>IPK</t>
   </si>
   <si>
-    <t>Gaji</t>
+    <t>Umur</t>
   </si>
   <si>
     <t>NXAZJ</t>
   </si>
   <si>
+    <t>0.51</t>
+  </si>
+  <si>
     <t>LGISN</t>
   </si>
   <si>
+    <t>2.44</t>
+  </si>
+  <si>
     <t>FLDNI</t>
   </si>
   <si>
+    <t>1.23</t>
+  </si>
+  <si>
     <t>RUFTR</t>
   </si>
   <si>
+    <t>1.14</t>
+  </si>
+  <si>
     <t>FLXXC</t>
   </si>
   <si>
+    <t>0.84</t>
+  </si>
+  <si>
     <t>QXNSQ</t>
   </si>
   <si>
+    <t>1.57</t>
+  </si>
+  <si>
     <t>FEGXC</t>
   </si>
   <si>
+    <t>2.73</t>
+  </si>
+  <si>
     <t>GKKAO</t>
   </si>
   <si>
+    <t>1.61</t>
+  </si>
+  <si>
     <t>KAQWX</t>
   </si>
   <si>
+    <t>2.59</t>
+  </si>
+  <si>
     <t>NAAVF</t>
   </si>
   <si>
+    <t>2.91</t>
+  </si>
+  <si>
     <t>YSFJD</t>
   </si>
   <si>
+    <t>3.24</t>
+  </si>
+  <si>
     <t>UNDVS</t>
   </si>
   <si>
+    <t>2.28</t>
+  </si>
+  <si>
     <t>FXMHQ</t>
   </si>
   <si>
+    <t>3.96</t>
+  </si>
+  <si>
     <t>TWKZB</t>
   </si>
   <si>
+    <t>2.01</t>
+  </si>
+  <si>
     <t>HDPGX</t>
   </si>
   <si>
+    <t>2.15</t>
+  </si>
+  <si>
     <t>ZYRVF</t>
   </si>
   <si>
+    <t>2.63</t>
+  </si>
+  <si>
     <t>ISNQE</t>
   </si>
   <si>
+    <t>3.89</t>
+  </si>
+  <si>
     <t>BFJAE</t>
   </si>
   <si>
+    <t>2.81</t>
+  </si>
+  <si>
     <t>HLRKF</t>
   </si>
   <si>
+    <t>3.67</t>
+  </si>
+  <si>
     <t>MKABB</t>
   </si>
   <si>
+    <t>0.63</t>
+  </si>
+  <si>
     <t>WOCMZ</t>
   </si>
   <si>
+    <t>1.69</t>
+  </si>
+  <si>
     <t>FZAYW</t>
   </si>
   <si>
     <t>LGVQY</t>
   </si>
   <si>
+    <t>2.93</t>
+  </si>
+  <si>
     <t>DPTBA</t>
   </si>
   <si>
+    <t>3.32</t>
+  </si>
+  <si>
     <t>UPKYT</t>
   </si>
   <si>
+    <t>1.07</t>
+  </si>
+  <si>
     <t>NRGLY</t>
   </si>
   <si>
+    <t>1.26</t>
+  </si>
+  <si>
     <t>VWDRE</t>
   </si>
   <si>
+    <t>1.65</t>
+  </si>
+  <si>
     <t>CPFKH</t>
   </si>
   <si>
     <t>GFFJE</t>
   </si>
   <si>
+    <t>0.37</t>
+  </si>
+  <si>
     <t>RCQWA</t>
   </si>
   <si>
+    <t>1.56</t>
+  </si>
+  <si>
     <t>EAVPF</t>
   </si>
   <si>
+    <t>2.57</t>
+  </si>
+  <si>
     <t>TZDIQ</t>
   </si>
   <si>
+    <t>2.96</t>
+  </si>
+  <si>
     <t>YMCZY</t>
   </si>
   <si>
+    <t>0.92</t>
+  </si>
+  <si>
     <t>ONFHF</t>
   </si>
   <si>
+    <t>2.48</t>
+  </si>
+  <si>
     <t>ALKFM</t>
   </si>
   <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>FFSVQ</t>
   </si>
   <si>
+    <t>0.62</t>
+  </si>
+  <si>
     <t>HNQWN</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
     <t>KDCUO</t>
   </si>
   <si>
+    <t>0.64</t>
+  </si>
+  <si>
     <t>XGUTS</t>
   </si>
   <si>
+    <t>2.72</t>
+  </si>
+  <si>
     <t>GXEQH</t>
   </si>
   <si>
+    <t>3.65</t>
+  </si>
+  <si>
     <t>KSJER</t>
   </si>
   <si>
+    <t>1.55</t>
+  </si>
+  <si>
     <t>QWYVZ</t>
   </si>
   <si>
+    <t>1.25</t>
+  </si>
+  <si>
     <t>BIYNB</t>
   </si>
   <si>
+    <t>2.51</t>
+  </si>
+  <si>
     <t>LZQRS</t>
   </si>
   <si>
     <t>DUYCE</t>
   </si>
   <si>
+    <t>0.16</t>
+  </si>
+  <si>
     <t>LWUBI</t>
   </si>
   <si>
+    <t>0.98</t>
+  </si>
+  <si>
     <t>XOVLM</t>
   </si>
   <si>
+    <t>2.40</t>
+  </si>
+  <si>
     <t>JOTIJ</t>
   </si>
   <si>
+    <t>1.83</t>
+  </si>
+  <si>
     <t>XPPBI</t>
   </si>
   <si>
+    <t>1.39</t>
+  </si>
+  <si>
     <t>OAHLE</t>
   </si>
   <si>
     <t>AVUZC</t>
   </si>
   <si>
+    <t>0.55</t>
+  </si>
+  <si>
     <t>ADTGM</t>
   </si>
   <si>
+    <t>3.07</t>
+  </si>
+  <si>
     <t>PFILG</t>
   </si>
   <si>
+    <t>1.50</t>
+  </si>
+  <si>
     <t>JXKMC</t>
   </si>
   <si>
+    <t>2.76</t>
+  </si>
+  <si>
     <t>TJLZB</t>
   </si>
   <si>
+    <t>2.27</t>
+  </si>
+  <si>
     <t>NGFCE</t>
   </si>
   <si>
+    <t>3.60</t>
+  </si>
+  <si>
     <t>JHKNG</t>
   </si>
   <si>
+    <t>3.19</t>
+  </si>
+  <si>
     <t>AEDQB</t>
   </si>
   <si>
+    <t>0.53</t>
+  </si>
+  <si>
     <t>ZKMKB</t>
   </si>
   <si>
+    <t>1.81</t>
+  </si>
+  <si>
     <t>HDPES</t>
   </si>
   <si>
+    <t>0.04</t>
+  </si>
+  <si>
     <t>GISRL</t>
   </si>
   <si>
+    <t>3.02</t>
+  </si>
+  <si>
     <t>FXJBC</t>
   </si>
   <si>
     <t>DQGRQ</t>
   </si>
   <si>
+    <t>3.91</t>
+  </si>
+  <si>
     <t>VNQAY</t>
   </si>
   <si>
+    <t>0.90</t>
+  </si>
+  <si>
     <t>QESRK</t>
   </si>
   <si>
+    <t>2.03</t>
+  </si>
+  <si>
     <t>SYZFO</t>
   </si>
   <si>
+    <t>1.97</t>
+  </si>
+  <si>
     <t>NOALV</t>
   </si>
   <si>
+    <t>3.31</t>
+  </si>
+  <si>
     <t>AMLVR</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>VTAKP</t>
   </si>
   <si>
+    <t>3.52</t>
+  </si>
+  <si>
     <t>OBKKM</t>
   </si>
   <si>
+    <t>1.28</t>
+  </si>
+  <si>
     <t>ZJEMS</t>
   </si>
   <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>TBSDP</t>
   </si>
   <si>
+    <t>0.74</t>
+  </si>
+  <si>
     <t>DDTFB</t>
   </si>
   <si>
+    <t>0.19</t>
+  </si>
+  <si>
     <t>BJGQD</t>
   </si>
   <si>
+    <t>2.83</t>
+  </si>
+  <si>
     <t>OPPBN</t>
   </si>
   <si>
+    <t>2.74</t>
+  </si>
+  <si>
     <t>HHKXZ</t>
   </si>
   <si>
     <t>FMSRH</t>
   </si>
   <si>
+    <t>3.12</t>
+  </si>
+  <si>
     <t>VPFGR</t>
   </si>
   <si>
+    <t>0.50</t>
+  </si>
+  <si>
     <t>SRUGF</t>
   </si>
   <si>
+    <t>0.26</t>
+  </si>
+  <si>
     <t>VXOYA</t>
   </si>
   <si>
+    <t>2.64</t>
+  </si>
+  <si>
     <t>UGCZY</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>CRZDD</t>
   </si>
   <si>
+    <t>1.35</t>
+  </si>
+  <si>
     <t>ISHGI</t>
   </si>
   <si>
+    <t>2.35</t>
+  </si>
+  <si>
     <t>HPLXW</t>
   </si>
   <si>
+    <t>2.61</t>
+  </si>
+  <si>
     <t>OVMRH</t>
   </si>
   <si>
+    <t>2.46</t>
+  </si>
+  <si>
     <t>UOQDQ</t>
   </si>
   <si>
+    <t>3.80</t>
+  </si>
+  <si>
     <t>AQRVL</t>
   </si>
   <si>
+    <t>3.90</t>
+  </si>
+  <si>
     <t>HMPVC</t>
   </si>
   <si>
+    <t>1.24</t>
+  </si>
+  <si>
     <t>NODKH</t>
   </si>
   <si>
     <t>OJNSD</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>FGXTM</t>
   </si>
   <si>
+    <t>0.48</t>
+  </si>
+  <si>
     <t>ISUYZ</t>
   </si>
   <si>
+    <t>1.75</t>
+  </si>
+  <si>
     <t>FUAQX</t>
   </si>
   <si>
     <t>XIAZP</t>
   </si>
   <si>
+    <t>0.94</t>
+  </si>
+  <si>
     <t>KWUGZ</t>
   </si>
   <si>
+    <t>0.40</t>
+  </si>
+  <si>
     <t>UJAXM</t>
   </si>
   <si>
     <t>LGRIH</t>
   </si>
   <si>
+    <t>2.69</t>
+  </si>
+  <si>
     <t>CZGIR</t>
   </si>
   <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>AAESS</t>
   </si>
   <si>
+    <t>0.56</t>
+  </si>
+  <si>
     <t>ZZEKG</t>
+  </si>
+  <si>
+    <t>0.79</t>
   </si>
 </sst>
 </file>
@@ -684,11 +957,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.5136160504103251</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -696,13 +969,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2.437905985801999</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -710,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1.22602994770413</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -724,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1.143265784650897</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -738,13 +1011,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.8404574820022108</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -752,13 +1025,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1.57328718666867</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -766,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2.728822189004565</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -780,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1.606173717706575</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -794,13 +1067,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2.585789192927422</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -808,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2.911297162190259</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -822,13 +1095,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>3.241376144890745</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -836,13 +1109,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2.283164249732189</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -850,13 +1123,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>3.961267092227347</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -864,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2.008294233157327</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -878,13 +1151,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2.148734094891999</v>
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -892,13 +1165,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2.633298441091017</v>
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -906,13 +1179,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>3.885219569493555</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -920,13 +1193,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2.807787849979021</v>
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -934,13 +1207,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>3.667334903744686</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -948,13 +1221,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>0.6346508234541215</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -962,13 +1235,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1.687992395386257</v>
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -976,13 +1249,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2.81405505831027</v>
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -990,13 +1263,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>2.930863139032184</v>
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1004,13 +1277,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>3.320075604892801</v>
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1018,13 +1291,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>1.065429737075624</v>
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1032,13 +1305,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>1.258865472314357</v>
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1046,13 +1319,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>1.650892160295028</v>
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1060,13 +1333,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>1.569468512439928</v>
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1074,13 +1347,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>0.3707935804533453</v>
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1088,13 +1361,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>1.55904238487439</v>
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1102,13 +1375,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>2.569553468262296</v>
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1116,13 +1389,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>2.957881165471676</v>
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1130,13 +1403,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>0.9195025858363999</v>
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1144,13 +1417,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>2.482710242488837</v>
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1158,13 +1431,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>3.004417164887436</v>
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1172,13 +1445,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>0.6220900603217179</v>
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1186,13 +1459,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>0.05729080307343404</v>
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1200,13 +1473,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>0.6404997063149334</v>
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1214,13 +1487,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>2.715721317227537</v>
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1228,13 +1501,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>3.653280769122952</v>
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1242,13 +1515,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <v>1.54904929281473</v>
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1256,13 +1529,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>1.24799157150103</v>
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1270,13 +1543,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44">
-        <v>2.509053695226552</v>
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1284,13 +1557,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>1.264749509987446</v>
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1298,13 +1571,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>0.1568420336896383</v>
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1312,13 +1585,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>0.9811345544666943</v>
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1326,13 +1599,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>2.402167435377362</v>
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1340,13 +1613,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>1.831202239595009</v>
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1354,13 +1627,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>1.38759585235425</v>
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1368,13 +1641,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>1.568654313618542</v>
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1382,13 +1655,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>0.5484754922106929</v>
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1396,13 +1669,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53">
-        <v>3.069614701422555</v>
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1410,13 +1683,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>1.496130194180807</v>
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1424,13 +1697,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>2.759897018495992</v>
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1438,13 +1711,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>2.271168256584209</v>
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1452,13 +1725,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>3.600446858962602</v>
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1466,13 +1739,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>3.185782419069942</v>
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1480,13 +1753,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>0.529155418243906</v>
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1494,13 +1767,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60">
-        <v>1.805695673582746</v>
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1508,13 +1781,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>0.04458622533894951</v>
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1522,13 +1795,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62">
-        <v>3.020362507331307</v>
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1536,13 +1809,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63">
-        <v>0.9230313423113352</v>
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1550,13 +1823,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64">
-        <v>3.906353755944876</v>
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1564,13 +1837,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65">
-        <v>0.9017104690285738</v>
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1578,13 +1851,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66">
-        <v>2.03284953057935</v>
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1592,13 +1865,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67">
-        <v>1.966352590783908</v>
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1606,13 +1879,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68">
-        <v>3.309324561662727</v>
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1620,13 +1893,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69">
-        <v>2.380686885970693</v>
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1634,13 +1907,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70">
-        <v>3.524393183452721</v>
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1648,13 +1921,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71">
-        <v>1.278560367658924</v>
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1662,13 +1935,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72">
-        <v>0.3899367496353676</v>
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1676,13 +1949,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73">
-        <v>0.742854760105347</v>
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1690,13 +1963,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74">
-        <v>0.1851355958171257</v>
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>144</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1704,13 +1977,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75">
-        <v>2.829472958604063</v>
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>146</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1718,13 +1991,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76">
-        <v>2.744237868373757</v>
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1732,13 +2005,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77">
-        <v>3.018646154491448</v>
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1746,13 +2019,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78">
-        <v>3.123508315890666</v>
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1760,13 +2033,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79">
-        <v>0.5006348899158497</v>
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1774,13 +2047,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80">
-        <v>0.2566079855086802</v>
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1788,13 +2061,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81">
-        <v>2.636317646952639</v>
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1802,13 +2075,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82">
-        <v>0.004586103428815935</v>
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
       </c>
       <c r="D82">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1816,13 +2089,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83">
-        <v>1.348244972849902</v>
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1830,13 +2103,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84">
-        <v>2.350650139123242</v>
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1844,13 +2117,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85">
-        <v>2.609717683144388</v>
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1858,13 +2131,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86">
-        <v>2.462389477398687</v>
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1872,13 +2145,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87">
-        <v>3.797568458719933</v>
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1886,13 +2159,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88">
-        <v>3.89848794260776</v>
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1900,13 +2173,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89">
-        <v>1.242149959406562</v>
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1914,13 +2187,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90">
-        <v>1.259968590489097</v>
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1928,13 +2201,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91">
-        <v>0.08569588008566154</v>
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1942,13 +2215,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92">
-        <v>0.4842452284308525</v>
+        <v>177</v>
+      </c>
+      <c r="C92" t="s">
+        <v>178</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1956,13 +2229,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93">
-        <v>1.752697331912985</v>
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1970,13 +2243,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94">
-        <v>2.566865036354236</v>
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1984,13 +2257,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95">
-        <v>0.942722179148018</v>
+        <v>182</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1998,13 +2271,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96">
-        <v>0.3977347961428057</v>
+        <v>184</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2012,13 +2285,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97">
-        <v>2.739774682818186</v>
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2026,13 +2299,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98">
-        <v>2.688876094246884</v>
+        <v>187</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2040,13 +2313,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99">
-        <v>2.001537505646733</v>
+        <v>189</v>
+      </c>
+      <c r="C99" t="s">
+        <v>190</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2054,13 +2327,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100">
-        <v>0.5638014235444087</v>
+        <v>191</v>
+      </c>
+      <c r="C100" t="s">
+        <v>192</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2068,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101">
-        <v>0.7876442879798216</v>
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
